--- a/meta/program/BlancoValueObjectTask.xlsx
+++ b/meta/program/BlancoValueObjectTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B95E1-93B0-7D4D-8C83-93B8AA312DE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920D3F8F-8391-8448-9E89-ED363ED86CA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,10 +248,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>出力先フォルダの書式を指定します。
-blanco: &lt;targetdir&gt;/main
-maven: &lt;targetdir&gt;/main/java
-free: &lt;targetdir&gt;(targetdirが無指定の場合はblanco/main)</t>
+    <t>出力先フォルダの書式を指定します。&lt;br&gt;
+blanco: [targetdir]/main&lt;br&gt;
+maven: [targetdir]/main/java&lt;br&gt;
+free: [targetdir](targetdirが無指定の場合はblanco/main)</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">シュツリョクサキ </t>
     </rPh>
@@ -261,10 +261,10 @@
     <rPh sb="11" eb="13">
       <t xml:space="preserve">シテイ </t>
     </rPh>
-    <rPh sb="100" eb="103">
+    <rPh sb="112" eb="115">
       <t xml:space="preserve">ムシテイノ </t>
     </rPh>
-    <rPh sb="104" eb="106">
+    <rPh sb="116" eb="118">
       <t xml:space="preserve">バアイハ </t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -734,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -841,36 +841,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -881,10 +852,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1256,7 +1258,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F20" sqref="F20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1302,10 +1304,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1315,10 +1317,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1329,10 +1331,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1343,10 +1345,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1378,38 +1380,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1425,12 +1427,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1446,12 +1448,12 @@
       <c r="E15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
@@ -1467,12 +1469,12 @@
       <c r="E16" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="49">
@@ -1535,7 +1537,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="75">
+    <row r="20" spans="1:9" ht="66" customHeight="1">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -1546,15 +1548,15 @@
         <v>17</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="62" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="22"/>
@@ -1623,12 +1625,8 @@
       <c r="I26" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F14:I14"/>
+  <mergeCells count="14">
+    <mergeCell ref="F20:I20"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F12:I13"/>
@@ -1637,6 +1635,11 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
